--- a/runs/run768/NotionalETEOutput768.xlsx
+++ b/runs/run768/NotionalETEOutput768.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_357.MISSILE_BRAVER0_357</t>
+    <t>MISSILE_BRAVER2_75.MISSILE_BRAVER2_75</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1516.404120454335</v>
+        <v>-1521.325968008407</v>
       </c>
       <c r="J2">
-        <v>1907.941962336339</v>
+        <v>2031.49837833719</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1422.085983558961</v>
+        <v>-1398.622336088919</v>
       </c>
       <c r="J3">
-        <v>1899.162646588966</v>
+        <v>1958.234959223466</v>
       </c>
       <c r="K3">
-        <v>309.7594476808134</v>
+        <v>295.347505887812</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1442.8343358806</v>
+        <v>-1478.759187224654</v>
       </c>
       <c r="J4">
-        <v>1820.828998825329</v>
+        <v>1978.562296802159</v>
       </c>
       <c r="K4">
-        <v>605.5551071228808</v>
+        <v>618.8542045628859</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1396.178657264815</v>
+        <v>-1363.273411341318</v>
       </c>
       <c r="J5">
-        <v>1878.895740190347</v>
+        <v>1875.939965854306</v>
       </c>
       <c r="K5">
-        <v>855.7685856142359</v>
+        <v>890.8405601555811</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1313.374591616659</v>
+        <v>-1408.482790379526</v>
       </c>
       <c r="J6">
-        <v>1757.351812756478</v>
+        <v>1867.159300356007</v>
       </c>
       <c r="K6">
-        <v>1174.732367108199</v>
+        <v>1156.117573120188</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1311.507725404544</v>
+        <v>-1320.187758229717</v>
       </c>
       <c r="J7">
-        <v>1737.31799329604</v>
+        <v>1716.086118343753</v>
       </c>
       <c r="K7">
-        <v>1383.089402463788</v>
+        <v>1353.60770664228</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1246.042998476419</v>
+        <v>-1318.27515454436</v>
       </c>
       <c r="J8">
-        <v>1791.893915637561</v>
+        <v>1656.953740180241</v>
       </c>
       <c r="K8">
-        <v>1661.425873663095</v>
+        <v>1539.53771268115</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-101.4261710099825</v>
+        <v>-96.82230426152155</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1228.776971664965</v>
+        <v>-1260.726698682609</v>
       </c>
       <c r="J9">
-        <v>1638.868602658465</v>
+        <v>1643.330905138536</v>
       </c>
       <c r="K9">
-        <v>1787.903620836808</v>
+        <v>1817.164688965242</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>212.6407261266438</v>
+        <v>214.2779610877989</v>
       </c>
       <c r="G10">
-        <v>-80.29599346419521</v>
+        <v>-87.27927086117909</v>
       </c>
       <c r="H10">
-        <v>860.6448737568827</v>
+        <v>874.2486782890743</v>
       </c>
       <c r="I10">
-        <v>-1215.381060283911</v>
+        <v>-1262.994543883469</v>
       </c>
       <c r="J10">
-        <v>1654.429005185135</v>
+        <v>1624.71993619586</v>
       </c>
       <c r="K10">
-        <v>2026.683813781774</v>
+        <v>2003.536699339779</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>162.7810805659721</v>
+        <v>175.8285365980499</v>
       </c>
       <c r="G11">
-        <v>-68.09197317593143</v>
+        <v>-64.64759514235371</v>
       </c>
       <c r="H11">
-        <v>1011.725400115593</v>
+        <v>1051.443384231944</v>
       </c>
       <c r="I11">
-        <v>-1174.271960828195</v>
+        <v>-1238.4533581037</v>
       </c>
       <c r="J11">
-        <v>1536.407663618511</v>
+        <v>1532.77768421726</v>
       </c>
       <c r="K11">
-        <v>2161.768954237596</v>
+        <v>2153.807773653413</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>138.2997082589811</v>
+        <v>137.8226061836357</v>
       </c>
       <c r="G12">
-        <v>-48.53222888469146</v>
+        <v>-48.9583795134492</v>
       </c>
       <c r="H12">
-        <v>1163.099613220251</v>
+        <v>1221.931629483375</v>
       </c>
       <c r="I12">
-        <v>-1205.39301355243</v>
+        <v>-1136.159737054277</v>
       </c>
       <c r="J12">
-        <v>1578.759735863733</v>
+        <v>1521.47591451402</v>
       </c>
       <c r="K12">
-        <v>2307.192165635284</v>
+        <v>2338.759325614521</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.0638876919202</v>
+        <v>126.3663159527952</v>
       </c>
       <c r="G13">
-        <v>-33.40865181217612</v>
+        <v>-32.49155500722536</v>
       </c>
       <c r="H13">
-        <v>1316.284062615381</v>
+        <v>1260.435995513152</v>
       </c>
       <c r="I13">
-        <v>-1169.759602610741</v>
+        <v>-1085.423097425597</v>
       </c>
       <c r="J13">
-        <v>1464.712187279487</v>
+        <v>1483.992951109723</v>
       </c>
       <c r="K13">
-        <v>2433.388039721238</v>
+        <v>2597.181472355182</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.3071581748272</v>
+        <v>111.4203527340916</v>
       </c>
       <c r="G14">
-        <v>-16.75137522991961</v>
+        <v>-17.12336343636168</v>
       </c>
       <c r="H14">
-        <v>1351.123530839298</v>
+        <v>1393.909033715475</v>
       </c>
       <c r="I14">
-        <v>-1143.781663757626</v>
+        <v>-1112.260114134448</v>
       </c>
       <c r="J14">
-        <v>1373.451049662225</v>
+        <v>1445.678967080163</v>
       </c>
       <c r="K14">
-        <v>2667.375723896253</v>
+        <v>2597.61346983776</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.038470799067</v>
+        <v>95.36937538319948</v>
       </c>
       <c r="G15">
-        <v>-0.9581374603697997</v>
+        <v>-0.965765572303092</v>
       </c>
       <c r="H15">
-        <v>1365.02419240047</v>
+        <v>1389.270038487582</v>
       </c>
       <c r="I15">
-        <v>-1006.827405982288</v>
+        <v>-1081.877018797396</v>
       </c>
       <c r="J15">
-        <v>1362.52799705163</v>
+        <v>1389.984297487623</v>
       </c>
       <c r="K15">
-        <v>2703.347188009157</v>
+        <v>2806.76058460378</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.76160676397537</v>
+        <v>94.72062111166659</v>
       </c>
       <c r="G16">
-        <v>15.25543573653953</v>
+        <v>15.46432127188246</v>
       </c>
       <c r="H16">
-        <v>1428.5039014309</v>
+        <v>1390.943563813678</v>
       </c>
       <c r="I16">
-        <v>-1056.843641475832</v>
+        <v>-988.9864915254376</v>
       </c>
       <c r="J16">
-        <v>1271.419311531238</v>
+        <v>1372.955642858478</v>
       </c>
       <c r="K16">
-        <v>2754.945827631283</v>
+        <v>3008.856722253503</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.99755953869602</v>
+        <v>85.07212358181853</v>
       </c>
       <c r="G17">
-        <v>30.87722870424155</v>
+        <v>30.8126678288236</v>
       </c>
       <c r="H17">
-        <v>1429.495999138268</v>
+        <v>1534.500109395253</v>
       </c>
       <c r="I17">
-        <v>-949.1790640306862</v>
+        <v>-1010.51466152862</v>
       </c>
       <c r="J17">
-        <v>1216.035902975685</v>
+        <v>1290.530169607119</v>
       </c>
       <c r="K17">
-        <v>2878.71814649926</v>
+        <v>2931.157773234261</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.55148116200972</v>
+        <v>83.84851574452328</v>
       </c>
       <c r="G18">
-        <v>50.01593230778775</v>
+        <v>50.6838647051832</v>
       </c>
       <c r="H18">
-        <v>1476.826708111953</v>
+        <v>1510.548617058665</v>
       </c>
       <c r="I18">
-        <v>-900.241979019635</v>
+        <v>-962.1765840123602</v>
       </c>
       <c r="J18">
-        <v>1245.284962623264</v>
+        <v>1191.786641503139</v>
       </c>
       <c r="K18">
-        <v>3157.964960019664</v>
+        <v>2955.832524531952</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>73.84678082199869</v>
+        <v>80.41307297888689</v>
       </c>
       <c r="G19">
-        <v>63.81530300050618</v>
+        <v>65.49967908756024</v>
       </c>
       <c r="H19">
-        <v>1523.789464082695</v>
+        <v>1511.02851107447</v>
       </c>
       <c r="I19">
-        <v>-848.2519250162794</v>
+        <v>-840.7973712419069</v>
       </c>
       <c r="J19">
-        <v>1127.044365953444</v>
+        <v>1145.359621069642</v>
       </c>
       <c r="K19">
-        <v>3129.477152862157</v>
+        <v>2961.697974493708</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.48346485831753</v>
+        <v>72.66349253858797</v>
       </c>
       <c r="G20">
-        <v>84.42566050330758</v>
+        <v>81.16523331458617</v>
       </c>
       <c r="H20">
-        <v>1624.312833679908</v>
+        <v>1559.82122480992</v>
       </c>
       <c r="I20">
-        <v>-878.4379381009755</v>
+        <v>-861.323760858438</v>
       </c>
       <c r="J20">
-        <v>1145.810308293813</v>
+        <v>1102.392431734509</v>
       </c>
       <c r="K20">
-        <v>3090.806943636861</v>
+        <v>3263.98819574764</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.71689223438219</v>
+        <v>74.18860112636312</v>
       </c>
       <c r="G21">
-        <v>93.4083664250951</v>
+        <v>102.1994873274395</v>
       </c>
       <c r="H21">
-        <v>1576.062319993675</v>
+        <v>1662.092043771484</v>
       </c>
       <c r="I21">
-        <v>-756.4362209482634</v>
+        <v>-772.7573052559046</v>
       </c>
       <c r="J21">
-        <v>1096.44841041104</v>
+        <v>1057.048348935939</v>
       </c>
       <c r="K21">
-        <v>3191.353797392302</v>
+        <v>3287.642768449113</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.23817335630343</v>
+        <v>65.48304561088878</v>
       </c>
       <c r="G22">
-        <v>111.1402085816531</v>
+        <v>117.259104721659</v>
       </c>
       <c r="H22">
-        <v>1576.427096586102</v>
+        <v>1621.293005083914</v>
       </c>
       <c r="I22">
-        <v>-710.655420420183</v>
+        <v>-758.9114232964748</v>
       </c>
       <c r="J22">
-        <v>1003.608630842239</v>
+        <v>1044.476723845054</v>
       </c>
       <c r="K22">
-        <v>3350.942235864329</v>
+        <v>3184.036010026558</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.5379176317109</v>
+        <v>65.97221510951667</v>
       </c>
       <c r="G23">
-        <v>131.8383858653258</v>
+        <v>126.2537606702046</v>
       </c>
       <c r="H23">
-        <v>1694.857948660064</v>
+        <v>1624.546210168739</v>
       </c>
       <c r="I23">
-        <v>-667.6646271466876</v>
+        <v>-686.575662296686</v>
       </c>
       <c r="J23">
-        <v>1002.201361020886</v>
+        <v>945.4832231911322</v>
       </c>
       <c r="K23">
-        <v>3230.312848566504</v>
+        <v>3062.440951322304</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.71081434927856</v>
+        <v>61.46103950136318</v>
       </c>
       <c r="G24">
-        <v>142.8548196152397</v>
+        <v>142.6682648049368</v>
       </c>
       <c r="H24">
-        <v>1712.90189334611</v>
+        <v>1694.151592984048</v>
       </c>
       <c r="I24">
-        <v>-640.0789644523584</v>
+        <v>-624.5178682642522</v>
       </c>
       <c r="J24">
-        <v>939.1800683625795</v>
+        <v>938.559915457064</v>
       </c>
       <c r="K24">
-        <v>3157.906891360606</v>
+        <v>3329.373700643174</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.92166797501661</v>
+        <v>64.26790018107374</v>
       </c>
       <c r="G25">
-        <v>170.307626133676</v>
+        <v>163.4674596983463</v>
       </c>
       <c r="H25">
-        <v>1633.128266004014</v>
+        <v>1736.710901452974</v>
       </c>
       <c r="I25">
-        <v>-592.7949017910813</v>
+        <v>-568.8595187901597</v>
       </c>
       <c r="J25">
-        <v>913.4283683323283</v>
+        <v>918.0323022317566</v>
       </c>
       <c r="K25">
-        <v>3218.764709016759</v>
+        <v>3089.788575117354</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.79041929027954</v>
+        <v>57.06521513831427</v>
       </c>
       <c r="G26">
-        <v>183.8632268151368</v>
+        <v>172.9190624978897</v>
       </c>
       <c r="H26">
-        <v>1710.909843551267</v>
+        <v>1686.273268902432</v>
       </c>
       <c r="I26">
-        <v>-558.8404982660644</v>
+        <v>-542.5364948431294</v>
       </c>
       <c r="J26">
-        <v>829.254441345161</v>
+        <v>862.1210587043142</v>
       </c>
       <c r="K26">
-        <v>3124.355584832304</v>
+        <v>3035.064916336694</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.45565483021038</v>
+        <v>56.7248729431719</v>
       </c>
       <c r="G27">
-        <v>201.3933793032511</v>
+        <v>191.4982787381197</v>
       </c>
       <c r="H27">
-        <v>1755.410785798638</v>
+        <v>1769.281229422419</v>
       </c>
       <c r="I27">
-        <v>-488.999402216228</v>
+        <v>-508.1775810411966</v>
       </c>
       <c r="J27">
-        <v>814.4862762706106</v>
+        <v>779.3122389652318</v>
       </c>
       <c r="K27">
-        <v>3132.478975021427</v>
+        <v>3029.383225334869</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.6466451427364</v>
+        <v>55.1961928549303</v>
       </c>
       <c r="G28">
-        <v>215.8784236620733</v>
+        <v>210.689480329476</v>
       </c>
       <c r="H28">
-        <v>1658.573363534482</v>
+        <v>1779.486087598283</v>
       </c>
       <c r="I28">
-        <v>-450.9758624555339</v>
+        <v>-429.3740609599534</v>
       </c>
       <c r="J28">
-        <v>769.2722721231107</v>
+        <v>752.167557879109</v>
       </c>
       <c r="K28">
-        <v>2902.005801747398</v>
+        <v>2911.034838434127</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.62558981818044</v>
+        <v>55.07748884476508</v>
       </c>
       <c r="G29">
-        <v>237.0609251014038</v>
+        <v>224.7825087231062</v>
       </c>
       <c r="H29">
-        <v>1703.100134476549</v>
+        <v>1815.5938787293</v>
       </c>
       <c r="I29">
-        <v>-374.5876256987243</v>
+        <v>-399.2670245152709</v>
       </c>
       <c r="J29">
-        <v>652.7180397134636</v>
+        <v>697.174988547909</v>
       </c>
       <c r="K29">
-        <v>2947.683719909807</v>
+        <v>2865.468788658311</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.15695010081728</v>
+        <v>54.87273270351299</v>
       </c>
       <c r="G30">
-        <v>246.6963307528552</v>
+        <v>249.9324668208951</v>
       </c>
       <c r="H30">
-        <v>1794.140861946818</v>
+        <v>1796.418338314014</v>
       </c>
       <c r="I30">
-        <v>-325.8691659502919</v>
+        <v>-314.6109810627121</v>
       </c>
       <c r="J30">
-        <v>650.6662323687027</v>
+        <v>655.2785965158423</v>
       </c>
       <c r="K30">
-        <v>2696.48506304712</v>
+        <v>2824.090464893995</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.85693832998523</v>
+        <v>52.89456606025549</v>
       </c>
       <c r="G31">
-        <v>276.3415983693764</v>
+        <v>260.0926892407912</v>
       </c>
       <c r="H31">
-        <v>1744.603874411701</v>
+        <v>1849.202340622259</v>
       </c>
       <c r="I31">
-        <v>-272.8582036457251</v>
+        <v>-260.7890015602225</v>
       </c>
       <c r="J31">
-        <v>561.2632996021879</v>
+        <v>606.6872010052564</v>
       </c>
       <c r="K31">
-        <v>2557.120763414523</v>
+        <v>2768.381454557219</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.44635915448949</v>
+        <v>53.13710922060876</v>
       </c>
       <c r="G32">
-        <v>284.5847185185422</v>
+        <v>277.3379955442144</v>
       </c>
       <c r="H32">
-        <v>1741.657586144303</v>
+        <v>1813.147302434624</v>
       </c>
       <c r="I32">
-        <v>-199.1839324396344</v>
+        <v>-207.676984980415</v>
       </c>
       <c r="J32">
-        <v>519.4835091130285</v>
+        <v>519.0197481244983</v>
       </c>
       <c r="K32">
-        <v>2610.810523893602</v>
+        <v>2610.426641293473</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.78955071394664</v>
+        <v>48.96640989034884</v>
       </c>
       <c r="G33">
-        <v>306.3161999291671</v>
+        <v>308.3264277059607</v>
       </c>
       <c r="H33">
-        <v>1853.959364043839</v>
+        <v>1732.606094809098</v>
       </c>
       <c r="I33">
-        <v>-148.9609292262914</v>
+        <v>-144.2609474650045</v>
       </c>
       <c r="J33">
-        <v>467.6419968503457</v>
+        <v>468.2137489557096</v>
       </c>
       <c r="K33">
-        <v>2268.002789452441</v>
+        <v>2464.508187668974</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.93544262784544</v>
+        <v>50.59190430540813</v>
       </c>
       <c r="G34">
-        <v>326.1367472530005</v>
+        <v>299.1051202405168</v>
       </c>
       <c r="H34">
-        <v>1857.57554556472</v>
+        <v>1893.321779846194</v>
       </c>
       <c r="I34">
-        <v>-82.52554817801058</v>
+        <v>-84.19244633507898</v>
       </c>
       <c r="J34">
-        <v>449.8777038355001</v>
+        <v>448.3418656612309</v>
       </c>
       <c r="K34">
-        <v>2150.180334358361</v>
+        <v>2250.218714735373</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.86289651750737</v>
+        <v>48.63126880177401</v>
       </c>
       <c r="G35">
-        <v>330.7748946819613</v>
+        <v>322.3027029416034</v>
       </c>
       <c r="H35">
-        <v>1804.093634994394</v>
+        <v>1826.17921224006</v>
       </c>
       <c r="I35">
-        <v>-17.90949083684127</v>
+        <v>-19.63536270636577</v>
       </c>
       <c r="J35">
-        <v>377.4955520597989</v>
+        <v>392.7211969064091</v>
       </c>
       <c r="K35">
-        <v>2054.709561628359</v>
+        <v>2125.17731583665</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.71310544197052</v>
+        <v>49.06841353055294</v>
       </c>
       <c r="G36">
-        <v>334.7448918867606</v>
+        <v>332.8303677009007</v>
       </c>
       <c r="H36">
-        <v>1874.050162485516</v>
+        <v>1821.957025848888</v>
       </c>
       <c r="I36">
-        <v>45.41002218538051</v>
+        <v>47.62745858417629</v>
       </c>
       <c r="J36">
-        <v>340.9712958880197</v>
+        <v>362.0449651794557</v>
       </c>
       <c r="K36">
-        <v>1765.475527661084</v>
+        <v>1753.657094342715</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.91021434408255</v>
+        <v>45.24975176910197</v>
       </c>
       <c r="G37">
-        <v>371.0093153629654</v>
+        <v>374.5365593237676</v>
       </c>
       <c r="H37">
-        <v>1874.88004766319</v>
+        <v>1920.026423729948</v>
       </c>
       <c r="I37">
-        <v>112.2336879299149</v>
+        <v>117.3749063688997</v>
       </c>
       <c r="J37">
-        <v>293.8707933150755</v>
+        <v>285.6389606267434</v>
       </c>
       <c r="K37">
-        <v>1670.797246029781</v>
+        <v>1652.455969023498</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.5097316282229</v>
+        <v>46.85804190703718</v>
       </c>
       <c r="G38">
-        <v>384.3547965220574</v>
+        <v>379.27162801702</v>
       </c>
       <c r="H38">
-        <v>1939.173927035887</v>
+        <v>1909.56435985309</v>
       </c>
       <c r="I38">
-        <v>179.6119909384657</v>
+        <v>176.4956347272692</v>
       </c>
       <c r="J38">
-        <v>251.2794319531963</v>
+        <v>254.268708031082</v>
       </c>
       <c r="K38">
-        <v>1403.362525131298</v>
+        <v>1379.539711901212</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.41967560207233</v>
+        <v>46.8748497656705</v>
       </c>
       <c r="G39">
-        <v>387.7167549272324</v>
+        <v>392.9440613648154</v>
       </c>
       <c r="H39">
-        <v>1785.820367275553</v>
+        <v>1779.312333215321</v>
       </c>
       <c r="I39">
-        <v>256.8152192940408</v>
+        <v>252.2668815570814</v>
       </c>
       <c r="J39">
-        <v>199.6002494186069</v>
+        <v>192.5207539282199</v>
       </c>
       <c r="K39">
-        <v>1117.610444005417</v>
+        <v>1148.875770268849</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.91715125232587</v>
+        <v>42.69061337418792</v>
       </c>
       <c r="G40">
-        <v>391.6557737107869</v>
+        <v>401.1843166817698</v>
       </c>
       <c r="H40">
-        <v>1811.194648076388</v>
+        <v>1960.901101821198</v>
       </c>
       <c r="I40">
-        <v>340.2863833093925</v>
+        <v>334.9197856126275</v>
       </c>
       <c r="J40">
-        <v>144.0684433380259</v>
+        <v>158.6102400291736</v>
       </c>
       <c r="K40">
-        <v>859.6096431577291</v>
+        <v>864.742908440411</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.93853625655549</v>
+        <v>42.26331550217846</v>
       </c>
       <c r="G41">
-        <v>416.8681695709574</v>
+        <v>436.3149726602958</v>
       </c>
       <c r="H41">
-        <v>1905.290468718334</v>
+        <v>1917.619186323893</v>
       </c>
       <c r="I41">
-        <v>396.6841228142646</v>
+        <v>403.2521119608488</v>
       </c>
       <c r="J41">
-        <v>103.5960076676312</v>
+        <v>100.4593374600802</v>
       </c>
       <c r="K41">
-        <v>635.6267300280911</v>
+        <v>620.6649908471751</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.98684308021583</v>
+        <v>44.96035622941803</v>
       </c>
       <c r="G42">
-        <v>447.5594573778208</v>
+        <v>460.070192061269</v>
       </c>
       <c r="H42">
-        <v>1838.315493344458</v>
+        <v>1973.692769050463</v>
       </c>
       <c r="I42">
-        <v>478.0613264075594</v>
+        <v>466.1070802914998</v>
       </c>
       <c r="J42">
-        <v>55.75871136908174</v>
+        <v>55.10580493745562</v>
       </c>
       <c r="K42">
-        <v>351.9159038162739</v>
+        <v>332.2007241261044</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.88611854642522</v>
+        <v>40.47765060939408</v>
       </c>
       <c r="G43">
-        <v>461.0101375508785</v>
+        <v>479.3522631714602</v>
       </c>
       <c r="H43">
-        <v>1892.02002659738</v>
+        <v>1976.334498824018</v>
       </c>
       <c r="I43">
-        <v>535.7746697041221</v>
+        <v>585.4481150672228</v>
       </c>
       <c r="J43">
-        <v>5.264769400077009</v>
+        <v>5.527397792523894</v>
       </c>
       <c r="K43">
-        <v>33.9206503897762</v>
+        <v>33.80025630036576</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.50972848818341</v>
+        <v>42.11721443469541</v>
       </c>
       <c r="G44">
-        <v>472.8585736120175</v>
+        <v>468.011387565986</v>
       </c>
       <c r="H44">
-        <v>1956.234586152775</v>
+        <v>1838.758191138947</v>
       </c>
       <c r="I44">
-        <v>630.1883918679683</v>
+        <v>656.8556983063456</v>
       </c>
       <c r="J44">
-        <v>-44.34163106212597</v>
+        <v>-41.23096801967297</v>
       </c>
       <c r="K44">
-        <v>-293.1937738722183</v>
+        <v>-285.1236189697788</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.27332609114687</v>
+        <v>39.224205496332</v>
       </c>
       <c r="G45">
-        <v>500.7239739946122</v>
+        <v>502.889027088252</v>
       </c>
       <c r="H45">
-        <v>1995.356053053341</v>
+        <v>1972.5352532846</v>
       </c>
       <c r="I45">
-        <v>743.5238230764368</v>
+        <v>685.2646332534704</v>
       </c>
       <c r="J45">
-        <v>-90.7246610646296</v>
+        <v>-88.71754512512913</v>
       </c>
       <c r="K45">
-        <v>-591.1867188150486</v>
+        <v>-615.4917077463998</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.80392626166072</v>
+        <v>40.04595573394675</v>
       </c>
       <c r="G46">
-        <v>506.0533196765926</v>
+        <v>518.5452726593634</v>
       </c>
       <c r="H46">
-        <v>1863.580603629405</v>
+        <v>1982.844349347815</v>
       </c>
       <c r="I46">
-        <v>818.4278283458776</v>
+        <v>793.698046954094</v>
       </c>
       <c r="J46">
-        <v>-140.9670357998322</v>
+        <v>-142.9321143623962</v>
       </c>
       <c r="K46">
-        <v>-921.7326230811237</v>
+        <v>-922.3199471395246</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.10232326489503</v>
+        <v>38.57698776257713</v>
       </c>
       <c r="G47">
-        <v>548.4823985545258</v>
+        <v>504.2969717952884</v>
       </c>
       <c r="H47">
-        <v>2016.942979062025</v>
+        <v>1953.00660814643</v>
       </c>
       <c r="I47">
-        <v>873.4872370410551</v>
+        <v>935.5467215755153</v>
       </c>
       <c r="J47">
-        <v>-188.0730783013506</v>
+        <v>-196.1762486707224</v>
       </c>
       <c r="K47">
-        <v>-1347.864759874636</v>
+        <v>-1270.802828446035</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.84497132358238</v>
+        <v>40.62106443165195</v>
       </c>
       <c r="G48">
-        <v>528.9354727368849</v>
+        <v>570.600191936023</v>
       </c>
       <c r="H48">
-        <v>1873.287467564986</v>
+        <v>2009.595568941861</v>
       </c>
       <c r="I48">
-        <v>972.4092495981967</v>
+        <v>966.3602595448712</v>
       </c>
       <c r="J48">
-        <v>-242.5357144444808</v>
+        <v>-237.0292954536156</v>
       </c>
       <c r="K48">
-        <v>-1622.535439803981</v>
+        <v>-1663.707049570977</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.41526348749102</v>
+        <v>37.27514165311775</v>
       </c>
       <c r="G49">
-        <v>549.3475010401979</v>
+        <v>550.2940690540451</v>
       </c>
       <c r="H49">
-        <v>2020.983736988636</v>
+        <v>1899.654713029119</v>
       </c>
       <c r="I49">
-        <v>1063.9601189028</v>
+        <v>1064.653823146904</v>
       </c>
       <c r="J49">
-        <v>-280.1490264406208</v>
+        <v>-289.784150961535</v>
       </c>
       <c r="K49">
-        <v>-2053.987413858724</v>
+        <v>-2047.174232962893</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.99804076435041</v>
+        <v>37.62675603930222</v>
       </c>
       <c r="G50">
-        <v>549.0450814767266</v>
+        <v>567.0975756335855</v>
       </c>
       <c r="H50">
-        <v>1954.789910250694</v>
+        <v>1874.883489991245</v>
       </c>
       <c r="I50">
-        <v>1209.81551030339</v>
+        <v>1164.03185323659</v>
       </c>
       <c r="J50">
-        <v>-343.0296812477873</v>
+        <v>-345.6103403585354</v>
       </c>
       <c r="K50">
-        <v>-2388.096001159715</v>
+        <v>-2403.54297836845</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.37033206079127</v>
+        <v>36.12577346393955</v>
       </c>
       <c r="G51">
-        <v>599.0893586898231</v>
+        <v>571.1683815114022</v>
       </c>
       <c r="H51">
-        <v>2000.122587997648</v>
+        <v>2029.170406253394</v>
       </c>
       <c r="I51">
-        <v>1242.191324314086</v>
+        <v>1198.44838730136</v>
       </c>
       <c r="J51">
-        <v>-378.0600546893791</v>
+        <v>-386.9542398792685</v>
       </c>
       <c r="K51">
-        <v>-3021.085094305985</v>
+        <v>-2921.839428128304</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.93967048596255</v>
+        <v>38.36706149120672</v>
       </c>
       <c r="G52">
-        <v>625.9776266311568</v>
+        <v>598.2269144555061</v>
       </c>
       <c r="H52">
-        <v>1957.017698087717</v>
+        <v>2008.015285577506</v>
       </c>
       <c r="I52">
-        <v>1397.455991244941</v>
+        <v>1374.203804830231</v>
       </c>
       <c r="J52">
-        <v>-413.6286575319505</v>
+        <v>-444.083900410608</v>
       </c>
       <c r="K52">
-        <v>-3482.629161326852</v>
+        <v>-3240.40254159946</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.64724446965113</v>
+        <v>37.44046297180816</v>
       </c>
       <c r="G53">
-        <v>649.6611630162131</v>
+        <v>632.5351362851161</v>
       </c>
       <c r="H53">
-        <v>2058.03445341467</v>
+        <v>2019.261890662184</v>
       </c>
       <c r="I53">
-        <v>1509.025502100166</v>
+        <v>1465.680615679029</v>
       </c>
       <c r="J53">
-        <v>-475.1289226820089</v>
+        <v>-496.8047441125416</v>
       </c>
       <c r="K53">
-        <v>-3756.345870847672</v>
+        <v>-3845.393753739342</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.84413622012043</v>
+        <v>34.8643993326702</v>
       </c>
       <c r="G54">
-        <v>653.4131506870477</v>
+        <v>671.7516080395611</v>
       </c>
       <c r="H54">
-        <v>2000.317296806166</v>
+        <v>2056.790489073785</v>
       </c>
       <c r="I54">
-        <v>1508.60323265429</v>
+        <v>1626.694538269478</v>
       </c>
       <c r="J54">
-        <v>-518.7261012792977</v>
+        <v>-527.8880194150692</v>
       </c>
       <c r="K54">
-        <v>-4359.88365830121</v>
+        <v>-4416.780584634233</v>
       </c>
     </row>
   </sheetData>
